--- a/result/with_base/234/arousal/s23_8.xlsx
+++ b/result/with_base/234/arousal/s23_8.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.95703125</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7925000190734863</v>
+        <v>0.7120535671710968</v>
       </c>
       <c r="C2" t="n">
-        <v>41706.2109375</v>
+        <v>11303.03076171875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8372727199034258</v>
+        <v>0.7607011549613055</v>
       </c>
       <c r="E2" t="n">
-        <v>41699.02663352273</v>
+        <v>11301.43692555147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8524999916553497</v>
+        <v>0.8080357015132904</v>
       </c>
       <c r="C3" t="n">
-        <v>40915.28515625</v>
+        <v>11000.47705078125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9038636359301481</v>
+        <v>0.8400078766486224</v>
       </c>
       <c r="E3" t="n">
-        <v>40909.4375</v>
+        <v>10999.26321231618</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8850000202655792</v>
+        <v>0.84375</v>
       </c>
       <c r="C4" t="n">
-        <v>40133.798828125</v>
+        <v>10701.40478515625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9415909051895142</v>
+        <v>0.9033613450386945</v>
       </c>
       <c r="E4" t="n">
-        <v>40128.61115056818</v>
+        <v>10699.80227481618</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8774999976158142</v>
+        <v>0.8616071343421936</v>
       </c>
       <c r="C5" t="n">
-        <v>39365.66015625</v>
+        <v>10406.81591796875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9490909034555609</v>
+        <v>0.9246323529411765</v>
       </c>
       <c r="E5" t="n">
-        <v>39359.37926136364</v>
+        <v>10405.75649126838</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8675000071525574</v>
+        <v>0.90625</v>
       </c>
       <c r="C6" t="n">
-        <v>38607.76171875</v>
+        <v>10118.58447265625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.954318182034926</v>
+        <v>0.9456407568034004</v>
       </c>
       <c r="E6" t="n">
-        <v>38601.30184659091</v>
+        <v>10117.18342141544</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.8861607015132904</v>
       </c>
       <c r="C7" t="n">
-        <v>37859.3046875</v>
+        <v>9836.35107421875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9701136459003795</v>
+        <v>0.9392069332739886</v>
       </c>
       <c r="E7" t="n">
-        <v>37854.99751420454</v>
+        <v>9834.976217830883</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8975000083446503</v>
+        <v>0.8956473171710968</v>
       </c>
       <c r="C8" t="n">
-        <v>37126.158203125</v>
+        <v>9559.455078125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9663636359301481</v>
+        <v>0.9680278371362125</v>
       </c>
       <c r="E8" t="n">
-        <v>37121.74431818182</v>
+        <v>9558.18905101103</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9099999964237213</v>
+        <v>0.9107142984867096</v>
       </c>
       <c r="C9" t="n">
-        <v>36404.88671875</v>
+        <v>9289.7724609375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9765909205783497</v>
+        <v>0.961200104040258</v>
       </c>
       <c r="E9" t="n">
-        <v>36400.90838068182</v>
+        <v>9288.418026194853</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9358258843421936</v>
       </c>
       <c r="C10" t="n">
-        <v>35695.81640625</v>
+        <v>9025.76953125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9717699569814345</v>
       </c>
       <c r="E10" t="n">
-        <v>35692.87748579546</v>
+        <v>9024.734145220587</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8925000131130219</v>
+        <v>0.9358258843421936</v>
       </c>
       <c r="C11" t="n">
-        <v>35001.830078125</v>
+        <v>8768.451171875</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9871591004458341</v>
+        <v>0.9781381312538596</v>
       </c>
       <c r="E11" t="n">
-        <v>34997.91086647727</v>
+        <v>8767.4306640625</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8950000107288361</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34319.70703125</v>
+        <v>8517.4736328125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9892045530405912</v>
+        <v>0.9864758393343758</v>
       </c>
       <c r="E12" t="n">
-        <v>34315.49502840909</v>
+        <v>8516.435719209559</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C13" t="n">
-        <v>33649.166015625</v>
+        <v>8272.9130859375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9913636445999146</v>
+        <v>0.9847032568034004</v>
       </c>
       <c r="E13" t="n">
-        <v>33645.41299715909</v>
+        <v>8271.819221047794</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.9313616156578064</v>
       </c>
       <c r="C14" t="n">
-        <v>32991.15625</v>
+        <v>8034.356201171875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9920454621315002</v>
+        <v>0.9856880237074459</v>
       </c>
       <c r="E14" t="n">
-        <v>32987.57173295454</v>
+        <v>8033.300637637868</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9000000059604645</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C15" t="n">
-        <v>32346.10546875</v>
+        <v>7802.240234375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9887500080195341</v>
+        <v>0.9760372884133283</v>
       </c>
       <c r="E15" t="n">
-        <v>32341.97176846591</v>
+        <v>7801.029153262868</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C16" t="n">
-        <v>31710.9140625</v>
+        <v>7575.3193359375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9863445373142466</v>
       </c>
       <c r="E16" t="n">
-        <v>31708.07972301136</v>
+        <v>7574.535271139706</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8975000083446503</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C17" t="n">
-        <v>31089.4521484375</v>
+        <v>7354.7587890625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9934090971946716</v>
+        <v>0.9906775215092827</v>
       </c>
       <c r="E17" t="n">
-        <v>31086.14186789773</v>
+        <v>7353.94522633272</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C18" t="n">
-        <v>30478.458984375</v>
+        <v>7139.934326171875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9956818222999573</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E18" t="n">
-        <v>30475.685546875</v>
+        <v>7139.192124310662</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C19" t="n">
-        <v>29879.0576171875</v>
+        <v>6930.91845703125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9907431707662695</v>
       </c>
       <c r="E19" t="n">
-        <v>29876.53196022727</v>
+        <v>6930.013671875</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C20" t="n">
-        <v>29291.416015625</v>
+        <v>6727.24951171875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9912027295897988</v>
       </c>
       <c r="E20" t="n">
-        <v>29288.52290482954</v>
+        <v>6726.435518152573</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C21" t="n">
-        <v>28713.6005859375</v>
+        <v>6528.984130859375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E21" t="n">
-        <v>28711.54083806818</v>
+        <v>6528.263154871323</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C22" t="n">
-        <v>28148.12890625</v>
+        <v>6335.985107421875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9952272772789001</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E22" t="n">
-        <v>28145.40340909091</v>
+        <v>6335.31827320772</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9074999988079071</v>
+        <v>0.9229910671710968</v>
       </c>
       <c r="C23" t="n">
-        <v>27591.9482421875</v>
+        <v>6148.498779296875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E23" t="n">
-        <v>27589.85280539773</v>
+        <v>6147.616038602941</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C24" t="n">
-        <v>27047.046875</v>
+        <v>5965.744384765625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9939600825309753</v>
       </c>
       <c r="E24" t="n">
-        <v>27044.74147727273</v>
+        <v>5964.929630055147</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C25" t="n">
-        <v>26512.3271484375</v>
+        <v>5787.873291015625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9967045458880338</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E25" t="n">
-        <v>26509.71946022727</v>
+        <v>5787.172909007353</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C26" t="n">
-        <v>25987.0400390625</v>
+        <v>5614.902099609375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9963235294117647</v>
       </c>
       <c r="E26" t="n">
-        <v>25984.76775568182</v>
+        <v>5614.252010569853</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9325000047683716</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C27" t="n">
-        <v>25472.2373046875</v>
+        <v>5446.714599609375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E27" t="n">
-        <v>25469.75799005682</v>
+        <v>5445.998965992647</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C28" t="n">
-        <v>24967.1103515625</v>
+        <v>5282.984375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E28" t="n">
-        <v>24964.46821732954</v>
+        <v>5282.333725873162</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9124999940395355</v>
+        <v>0.953125</v>
       </c>
       <c r="C29" t="n">
-        <v>24470.7099609375</v>
+        <v>5123.63427734375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9972426470588235</v>
       </c>
       <c r="E29" t="n">
-        <v>24468.71147017046</v>
+        <v>5123.143813189338</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8849999904632568</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C30" t="n">
-        <v>23985.369140625</v>
+        <v>4968.77880859375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9938636422157288</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E30" t="n">
-        <v>23982.31125710227</v>
+        <v>4968.319019990809</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9249999821186066</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C31" t="n">
-        <v>23507.1982421875</v>
+        <v>4818.285400390625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E31" t="n">
-        <v>23505.05131392046</v>
+        <v>4817.761431525735</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C32" t="n">
-        <v>23039.0908203125</v>
+        <v>4671.801513671875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E32" t="n">
-        <v>23036.79012784091</v>
+        <v>4671.34415211397</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9149999916553497</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C33" t="n">
-        <v>22578.9326171875</v>
+        <v>4529.4423828125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9979545474052429</v>
+        <v>0.9967174354721519</v>
       </c>
       <c r="E33" t="n">
-        <v>22577.35458096591</v>
+        <v>4528.968434053309</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9486607015132904</v>
       </c>
       <c r="C34" t="n">
-        <v>22128.24609375</v>
+        <v>4391.0302734375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E34" t="n">
-        <v>22126.58025568182</v>
+        <v>4390.568502987132</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9375</v>
+        <v>0.9358258843421936</v>
       </c>
       <c r="C35" t="n">
-        <v>21685.6201171875</v>
+        <v>4256.4189453125</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9949448529411765</v>
       </c>
       <c r="E35" t="n">
-        <v>21684.3359375</v>
+        <v>4256.001407398897</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9313616156578064</v>
       </c>
       <c r="C36" t="n">
-        <v>21251.6943359375</v>
+        <v>4125.60107421875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E36" t="n">
-        <v>21250.47620738636</v>
+        <v>4125.174833409927</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9397321343421936</v>
       </c>
       <c r="C37" t="n">
-        <v>20826.3310546875</v>
+        <v>3998.431396484375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9971769942956812</v>
       </c>
       <c r="E37" t="n">
-        <v>20824.82120028409</v>
+        <v>3998.005299287684</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C38" t="n">
-        <v>20409.123046875</v>
+        <v>3874.784423828125</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9944852941176471</v>
       </c>
       <c r="E38" t="n">
-        <v>20407.20791903409</v>
+        <v>3874.414234834559</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9375</v>
+        <v>0.91015625</v>
       </c>
       <c r="C39" t="n">
-        <v>19999.3203125</v>
+        <v>3754.847534179688</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9938944332739886</v>
       </c>
       <c r="E39" t="n">
-        <v>19997.52059659091</v>
+        <v>3754.300967945772</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C40" t="n">
-        <v>19597.1435546875</v>
+        <v>3637.89794921875</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E40" t="n">
-        <v>19595.56516335227</v>
+        <v>3637.562399471507</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9274999797344208</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C41" t="n">
-        <v>19202.9150390625</v>
+        <v>3524.538696289062</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E41" t="n">
-        <v>19201.22123579546</v>
+        <v>3524.120246438419</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9224999845027924</v>
+        <v>0.9453125</v>
       </c>
       <c r="C42" t="n">
-        <v>18816.1123046875</v>
+        <v>3414.257568359375</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E42" t="n">
-        <v>18814.32475142046</v>
+        <v>3413.895895565257</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C43" t="n">
-        <v>18436.26171875</v>
+        <v>3307.248901367188</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9935005237074459</v>
       </c>
       <c r="E43" t="n">
-        <v>18434.76615767046</v>
+        <v>3306.803193933823</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9196428656578064</v>
       </c>
       <c r="C44" t="n">
-        <v>18063.6015625</v>
+        <v>3203.189819335938</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9948792001780342</v>
       </c>
       <c r="E44" t="n">
-        <v>18062.41228693182</v>
+        <v>3202.745878331802</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C45" t="n">
-        <v>17698.4609375</v>
+        <v>3102.076049804688</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9976136359301481</v>
+        <v>0.9943539920975181</v>
       </c>
       <c r="E45" t="n">
-        <v>17697.13139204546</v>
+        <v>3101.668428308823</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.929999977350235</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C46" t="n">
-        <v>17340.044921875</v>
+        <v>3003.737426757812</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9917279411764706</v>
       </c>
       <c r="E46" t="n">
-        <v>17338.76580255682</v>
+        <v>3003.496596392463</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9358258843421936</v>
       </c>
       <c r="C47" t="n">
-        <v>16988.189453125</v>
+        <v>2908.404907226562</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9957326685681063</v>
       </c>
       <c r="E47" t="n">
-        <v>16987.20419034091</v>
+        <v>2908.13130457261</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C48" t="n">
-        <v>16643.365234375</v>
+        <v>2815.726928710938</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9981818199157715</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E48" t="n">
-        <v>16642.31392045454</v>
+        <v>2815.507625804228</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9402901828289032</v>
       </c>
       <c r="C49" t="n">
-        <v>16304.9736328125</v>
+        <v>2725.846069335938</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9967830882352942</v>
       </c>
       <c r="E49" t="n">
-        <v>16304.00026633523</v>
+        <v>2725.559354894302</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9375</v>
+        <v>0.9313616156578064</v>
       </c>
       <c r="C50" t="n">
-        <v>15973.17822265625</v>
+        <v>2638.533569335938</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E50" t="n">
-        <v>15972.12136008523</v>
+        <v>2638.215030445772</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,894 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.929999977350235</v>
+        <v>0.95703125</v>
       </c>
       <c r="C51" t="n">
-        <v>15647.5947265625</v>
+        <v>2553.58349609375</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.995798317825093</v>
       </c>
       <c r="E51" t="n">
-        <v>15646.54651988636</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9249999821186066</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15328.6787109375</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15327.14089133523</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9174999892711639</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15015.314453125</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15013.85165127841</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14707.61962890625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14706.52556818182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14406.12890625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14405.08052201705</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9225000143051147</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14110.4765625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14109.41557173295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9249999821186066</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13820.56591796875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13819.36212713068</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13535.77978515625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13534.85511363636</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9300000071525574</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13256.90185546875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9979545474052429</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13255.78311434659</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12982.8740234375</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12982.068359375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12714.31494140625</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12713.60387073864</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9375</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12451.009765625</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12450.29039417614</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12192.861328125</v>
-      </c>
-      <c r="D63" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12192.02361505682</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11939.29150390625</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11938.70818536932</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11691.09716796875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11690.2724609375</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11447.41357421875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11446.60529119318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11208.30419921875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11207.640625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10973.6904296875</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10973.28338068182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9149999916553497</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10744.09521484375</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10743.44770951705</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9149999916553497</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10519.02783203125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10518.06507457386</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10297.5712890625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9994318160143766</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10297.02175071023</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10080.85009765625</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10080.2734375</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9474999904632568</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9868.470703125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9989772709933195</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9867.7412109375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9659.8759765625</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9975000023841858</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9659.32040127841</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9455.6123046875</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9454.940163352272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9255.01513671875</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9254.53311434659</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9449999928474426</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9058.74560546875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9058.05184659091</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8866.07373046875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8865.38671875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8677.02734375</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8676.496360085228</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8491.76318359375</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8491.296875</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8310.13623046875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8309.727894176136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8611111111111112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8777777777777778</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8888888888888888</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9055555555555556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9055555555555556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9888888888888889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2833333333333333</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9888888888888889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2833333333333333</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9667592592592593</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7166666666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01111111111111111</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01666666666666667</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01666666666666667</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.09444444444444444</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9333333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.09444444444444444</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.1722222222222222</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1722222222222222</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.2166666666666667</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9666666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.2166666666666667</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9833333333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.5277777777777778</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.9806481481481482</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+        <v>2553.387724034927</v>
       </c>
     </row>
   </sheetData>
